--- a/xlsx/密苏里州_intext.xlsx
+++ b/xlsx/密苏里州_intext.xlsx
@@ -15,27 +15,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="344">
   <si>
     <t>密苏里州</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%8B%8F%E9%87%8C%E5%B7%9E</t>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_密苏里州</t>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_密苏里州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E%E5%B7%9E%E6%97%97</t>
   </si>
   <si>
-    <t>密蘇里州州旗</t>
+    <t>密苏里州州旗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E6%98%B5%E7%A7%B0%E5%88%97%E8%A1%A8</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>英語</t>
+    <t>英语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E9%A6%96%E5%BA%9C%E5%88%97%E8%A1%A8</t>
@@ -71,19 +71,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%91%E4%BD%9B%E9%81%9C%E5%B8%82</t>
   </si>
   <si>
-    <t>傑佛遜市</t>
+    <t>杰佛逊市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B8%82</t>
   </si>
   <si>
-    <t>堪薩斯市</t>
+    <t>堪萨斯市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B7%AF%E6%98%93%E6%96%AF_(%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖路易斯 (密蘇里州)</t>
+    <t>圣路易斯 (密苏里州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E9%9D%A2%E7%A7%AF%E5%88%97%E8%A1%A8</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>共和黨 (美國)</t>
+    <t>共和党 (美国)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_lieutenant_governors_of_Missouri</t>
@@ -161,13 +161,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E8%95%BE%E5%85%92%C2%B7%E9%BA%A5%E5%8D%A1%E6%96%AF%E5%9F%BA</t>
   </si>
   <si>
-    <t>克蕾兒·麥卡斯基</t>
+    <t>克蕾儿·麦卡斯基</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>民主黨 (美國)</t>
+    <t>民主党 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E7%B8%AE%E5%AF%AB%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州縮寫列表</t>
+    <t>美国各州缩写列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ISO_3166-2:US</t>
@@ -221,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E8%A5%BF%E9%83%A8</t>
   </si>
   <si>
-    <t>美國中西部</t>
+    <t>美国中西部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%93%9D%E9%B8%9F</t>
@@ -233,19 +233,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E8%A5%BF%E5%AE%89%E7%B4%8D%E8%B3%BC%E5%9C%B0</t>
   </si>
   <si>
-    <t>路易西安納購地</t>
+    <t>路易西安纳购地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E6%97%8F</t>
   </si>
   <si>
-    <t>蘇族</t>
+    <t>苏族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E6%9C%A8%E8%88%9F</t>
   </si>
   <si>
-    <t>獨木舟</t>
+    <t>独木舟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E5%8E%9F</t>
@@ -263,7 +263,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E6%B2%B3</t>
   </si>
   <si>
-    <t>密蘇里河</t>
+    <t>密苏里河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E6%B2%B3</t>
@@ -275,25 +275,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E9%98%BF%E8%8F%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>愛阿華州</t>
+    <t>爱阿华州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
   </si>
   <si>
-    <t>內布拉斯加州</t>
+    <t>内布拉斯加州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>堪薩斯州</t>
+    <t>堪萨斯州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E</t>
   </si>
   <si>
-    <t>奧克拉荷馬州</t>
+    <t>奥克拉荷马州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E</t>
@@ -305,7 +305,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E8%AB%BE%E5%B7%9E</t>
   </si>
   <si>
-    <t>伊利諾州</t>
+    <t>伊利诺州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%A1%94%E5%9F%BA%E5%B7%9E</t>
@@ -317,7 +317,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%B4%8D%E8%A5%BF%E5%B7%9E</t>
   </si>
   <si>
-    <t>田納西州</t>
+    <t>田纳西州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%8B%8F%E9%87%8C%E5%B7%9E%E5%90%84%E5%8E%BF%E5%88%97%E8%A1%A8</t>
@@ -329,7 +329,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B7%AF%E6%98%93%E6%96%AF%E6%8B%B1%E9%96%80</t>
   </si>
   <si>
-    <t>聖路易斯拱門</t>
+    <t>圣路易斯拱门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E7%BE%8E%E8%A3%94%E4%BA%BA</t>
@@ -347,25 +347,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD</t>
   </si>
   <si>
-    <t>愛爾蘭</t>
+    <t>爱尔兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
+    <t>法国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%8B%8F%E9%87%8C%E5%A4%A7%E5%AD%A6</t>
@@ -389,19 +389,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%A4%A9%E4%B8%BB%E6%95%99</t>
   </si>
   <si>
-    <t>羅馬天主教</t>
+    <t>罗马天主教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E5%BE%B7%E6%9C%83</t>
   </si>
   <si>
-    <t>路德會</t>
+    <t>路德会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E7%90%86%E5%85%AC%E6%9C%83%E6%B4%BE</t>
   </si>
   <si>
-    <t>衛理公會派</t>
+    <t>卫理公会派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B8%E7%A4%BC%E4%BC%9A</t>
@@ -413,7 +413,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E5%8F%AC%E6%9C%83</t>
   </si>
   <si>
-    <t>神召會</t>
+    <t>神召会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%A5%E7%94%B0%E5%B8%82</t>
@@ -425,25 +425,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E5%B8%82_(%E5%AF%86%E8%98%87%E9%87%8C)</t>
   </si>
   <si>
-    <t>哥倫比亞市 (密蘇里)</t>
+    <t>哥伦比亚市 (密苏里)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E9%AD%AF%E9%96%80%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>杜魯門州立大學</t>
+    <t>杜鲁门州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E7%A7%91%E6%8A%80%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>密蘇里科技大學</t>
+    <t>密苏里科技大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>密蘇里州立大學</t>
+    <t>密苏里州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%99%AE%E6%9E%97%E8%8F%B2%E5%B0%94%E5%BE%B7_(%E5%AF%86%E8%8B%8F%E9%87%8C%E5%B7%9E)</t>
@@ -455,7 +455,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%8D%97%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>西南密蘇里州立大學</t>
+    <t>西南密苏里州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%8C%97%E5%AF%86%E8%8B%8F%E9%87%8C%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%A6</t>
@@ -479,7 +479,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%E4%BC%8D%E5%BE%B7%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>威廉伍德大學</t>
+    <t>威廉伍德大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B0%E4%BC%AF%E7%89%B9%EF%BC%8D%E5%9C%A3%E8%B7%AF%E6%98%93%E6%96%AF%E5%9B%BD%E9%99%85%E6%9C%BA%E5%9C%BA</t>
@@ -491,7 +491,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%88%AA%E7%A9%BA</t>
   </si>
   <si>
-    <t>美國航空</t>
+    <t>美国航空</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/29%E5%8F%B7%E5%B7%9E%E9%99%85%E5%85%AC%E8%B7%AF</t>
@@ -503,13 +503,13 @@
     <t>https://zh.wikipedia.org/wiki/35%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>35號州際公路</t>
+    <t>35号州际公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/55%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>55號州際公路</t>
+    <t>55号州际公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/44%E5%8F%B7%E5%B7%9E%E9%99%85%E5%85%AC%E8%B7%AF</t>
@@ -521,31 +521,31 @@
     <t>https://zh.wikipedia.org/wiki/70%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>70號州際公路</t>
+    <t>70号州际公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B66%E8%99%9F%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>美國66號公路</t>
+    <t>美国66号公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%9F%8E%E9%85%8B%E9%95%B7</t>
   </si>
   <si>
-    <t>堪薩斯城酋長</t>
+    <t>堪萨斯城酋长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%B7%E6%A3%92%E5%A4%A7%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>美國職棒大聯盟</t>
+    <t>美国职棒大联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B7%AF%E6%98%93%E7%B4%85%E9%9B%80</t>
   </si>
   <si>
-    <t>聖路易紅雀</t>
+    <t>圣路易红雀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%90%A8%E6%96%AF%E5%9F%8E%E7%9A%87%E5%AE%B6</t>
@@ -557,13 +557,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>小聯盟</t>
+    <t>小联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B7%AF%E6%98%93%E8%97%8D%E8%AA%BF</t>
   </si>
   <si>
-    <t>聖路易藍調</t>
+    <t>圣路易蓝调</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E9%87%8C%C2%B7%E6%9D%9C%E9%B2%81%E9%97%A8</t>
@@ -575,7 +575,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%8B%C2%B7%E5%90%90%E6%BA%AB</t>
   </si>
   <si>
-    <t>馬克·吐溫</t>
+    <t>马克·吐温</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E5%B0%94%E7%89%B9%C2%B7%E5%85%8B%E6%9C%97%E5%87%AF%E7%89%B9</t>
@@ -587,7 +587,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%8B%83%C2%B7%E9%98%BF%E7%89%B9%E6%9B%BC</t>
   </si>
   <si>
-    <t>勞勃·阿特曼</t>
+    <t>劳勃·阿特曼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%BE%B7%E5%8D%8E%C2%B7%E9%98%BF%E6%96%AF%E7%BA%B3</t>
@@ -599,7 +599,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%8B%E5%90%90%E6%BA%AB</t>
   </si>
   <si>
-    <t>馬克吐溫</t>
+    <t>马克吐温</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%A4%E5%A7%86%C2%B7%E7%B4%A2%E4%BA%9A%E5%8E%86%E9%99%A9%E8%AE%B0</t>
@@ -617,7 +617,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>美國行政區劃</t>
+    <t>美国行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD</t>
@@ -641,7 +641,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
   </si>
   <si>
-    <t>亞利桑那州</t>
+    <t>亚利桑那州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
@@ -653,7 +653,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
   </si>
   <si>
-    <t>科羅拉多州</t>
+    <t>科罗拉多州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E4%B9%83%E7%8B%84%E5%85%8B%E5%B7%9E</t>
@@ -677,7 +677,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>喬治亞州</t>
+    <t>乔治亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%B7%9E</t>
@@ -731,7 +731,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>麻薩諸塞州</t>
+    <t>麻萨诸塞州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E5%B7%9E</t>
@@ -743,7 +743,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>明尼蘇達州</t>
+    <t>明尼苏达州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%B7%9E</t>
@@ -821,7 +821,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E5%B3%B6%E5%B7%9E</t>
   </si>
   <si>
-    <t>羅德島州</t>
+    <t>罗德岛州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E</t>
@@ -839,9 +839,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%BA%B3%E8%A5%BF%E5%B7%9E</t>
   </si>
   <si>
-    <t>田纳西州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%90%A8%E6%96%AF%E5%B7%9E</t>
   </si>
   <si>
@@ -875,7 +872,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>西維吉尼亞州</t>
+    <t>西维吉尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E8%BE%9B%E5%B7%9E</t>
@@ -893,7 +890,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>聯邦地區</t>
+    <t>联邦地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
@@ -905,19 +902,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%B6%BC%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>島嶼地區</t>
+    <t>岛屿地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E8%96%A9%E6%91%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>美屬薩摩亞</t>
+    <t>美属萨摩亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
   </si>
   <si>
-    <t>關島</t>
+    <t>关岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A9%AC%E9%87%8C%E4%BA%9A%E7%BA%B3%E7%BE%A4%E5%B2%9B</t>
@@ -935,7 +932,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>美屬維爾京群島</t>
+    <t>美属维尔京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%AC%E5%9C%9F%E5%A4%96%E5%B0%8F%E5%B2%9B%E5%B1%BF</t>
@@ -947,7 +944,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>威克島</t>
+    <t>威克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%E6%96%AF%E9%A1%BF%E7%8E%AF%E7%A4%81</t>
@@ -959,7 +956,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%80%94%E5%B3%B6</t>
   </si>
   <si>
-    <t>中途島</t>
+    <t>中途岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%9B%BC%E7%A4%81</t>
@@ -971,25 +968,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E9%82%81%E6%8B%89%E7%92%B0%E7%A4%81</t>
   </si>
   <si>
-    <t>帕邁拉環礁</t>
+    <t>帕迈拉环礁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E7%B6%AD%E6%96%AF%E5%B3%B6</t>
   </si>
   <si>
-    <t>賈維斯島</t>
+    <t>贾维斯岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>貝克島</t>
+    <t>贝克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E8%98%AD%E5%B3%B6</t>
   </si>
   <si>
-    <t>豪蘭島</t>
+    <t>豪兰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%93%A6%E8%90%A8%E5%B2%9B</t>
@@ -1019,7 +1016,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1037,7 +1034,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1050,15 +1047,6 @@
   </si>
   <si>
     <t>法国国家图书馆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>浏览条目正文[c]</t>
-  </si>
-  <si>
-    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -1407,7 +1395,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I180"/>
+  <dimension ref="A1:I178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1925,7 +1913,7 @@
         <v>36</v>
       </c>
       <c r="G18" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H18" t="s">
         <v>4</v>
@@ -4361,7 +4349,7 @@
         <v>202</v>
       </c>
       <c r="G102" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H102" t="s">
         <v>4</v>
@@ -5547,7 +5535,7 @@
         <v>273</v>
       </c>
       <c r="F143" t="s">
-        <v>274</v>
+        <v>100</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5573,10 +5561,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>274</v>
+      </c>
+      <c r="F144" t="s">
         <v>275</v>
-      </c>
-      <c r="F144" t="s">
-        <v>276</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5602,10 +5590,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>276</v>
+      </c>
+      <c r="F145" t="s">
         <v>277</v>
-      </c>
-      <c r="F145" t="s">
-        <v>278</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5631,10 +5619,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>278</v>
+      </c>
+      <c r="F146" t="s">
         <v>279</v>
-      </c>
-      <c r="F146" t="s">
-        <v>280</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5660,10 +5648,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>280</v>
+      </c>
+      <c r="F147" t="s">
         <v>281</v>
-      </c>
-      <c r="F147" t="s">
-        <v>282</v>
       </c>
       <c r="G147" t="n">
         <v>2</v>
@@ -5689,10 +5677,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>282</v>
+      </c>
+      <c r="F148" t="s">
         <v>283</v>
-      </c>
-      <c r="F148" t="s">
-        <v>284</v>
       </c>
       <c r="G148" t="n">
         <v>3</v>
@@ -5718,10 +5706,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>284</v>
+      </c>
+      <c r="F149" t="s">
         <v>285</v>
-      </c>
-      <c r="F149" t="s">
-        <v>286</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5747,10 +5735,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>286</v>
+      </c>
+      <c r="F150" t="s">
         <v>287</v>
-      </c>
-      <c r="F150" t="s">
-        <v>288</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5776,10 +5764,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>288</v>
+      </c>
+      <c r="F151" t="s">
         <v>289</v>
-      </c>
-      <c r="F151" t="s">
-        <v>290</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5805,10 +5793,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>290</v>
+      </c>
+      <c r="F152" t="s">
         <v>291</v>
-      </c>
-      <c r="F152" t="s">
-        <v>292</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5834,10 +5822,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>292</v>
+      </c>
+      <c r="F153" t="s">
         <v>293</v>
-      </c>
-      <c r="F153" t="s">
-        <v>294</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5863,10 +5851,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>294</v>
+      </c>
+      <c r="F154" t="s">
         <v>295</v>
-      </c>
-      <c r="F154" t="s">
-        <v>296</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5892,10 +5880,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>296</v>
+      </c>
+      <c r="F155" t="s">
         <v>297</v>
-      </c>
-      <c r="F155" t="s">
-        <v>298</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -5921,10 +5909,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>298</v>
+      </c>
+      <c r="F156" t="s">
         <v>299</v>
-      </c>
-      <c r="F156" t="s">
-        <v>300</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -5950,10 +5938,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>300</v>
+      </c>
+      <c r="F157" t="s">
         <v>301</v>
-      </c>
-      <c r="F157" t="s">
-        <v>302</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -5979,10 +5967,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>302</v>
+      </c>
+      <c r="F158" t="s">
         <v>303</v>
-      </c>
-      <c r="F158" t="s">
-        <v>304</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6008,10 +5996,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>304</v>
+      </c>
+      <c r="F159" t="s">
         <v>305</v>
-      </c>
-      <c r="F159" t="s">
-        <v>306</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6037,10 +6025,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>306</v>
+      </c>
+      <c r="F160" t="s">
         <v>307</v>
-      </c>
-      <c r="F160" t="s">
-        <v>308</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6066,10 +6054,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>308</v>
+      </c>
+      <c r="F161" t="s">
         <v>309</v>
-      </c>
-      <c r="F161" t="s">
-        <v>310</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6095,10 +6083,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>310</v>
+      </c>
+      <c r="F162" t="s">
         <v>311</v>
-      </c>
-      <c r="F162" t="s">
-        <v>312</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6124,10 +6112,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>312</v>
+      </c>
+      <c r="F163" t="s">
         <v>313</v>
-      </c>
-      <c r="F163" t="s">
-        <v>314</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6153,10 +6141,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>314</v>
+      </c>
+      <c r="F164" t="s">
         <v>315</v>
-      </c>
-      <c r="F164" t="s">
-        <v>316</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6182,10 +6170,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>316</v>
+      </c>
+      <c r="F165" t="s">
         <v>317</v>
-      </c>
-      <c r="F165" t="s">
-        <v>318</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6211,10 +6199,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>318</v>
+      </c>
+      <c r="F166" t="s">
         <v>319</v>
-      </c>
-      <c r="F166" t="s">
-        <v>320</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6240,10 +6228,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>320</v>
+      </c>
+      <c r="F167" t="s">
         <v>321</v>
-      </c>
-      <c r="F167" t="s">
-        <v>322</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6269,10 +6257,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>322</v>
+      </c>
+      <c r="F168" t="s">
         <v>323</v>
-      </c>
-      <c r="F168" t="s">
-        <v>324</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6298,10 +6286,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>324</v>
+      </c>
+      <c r="F169" t="s">
         <v>325</v>
-      </c>
-      <c r="F169" t="s">
-        <v>326</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6327,10 +6315,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>326</v>
+      </c>
+      <c r="F170" t="s">
         <v>327</v>
-      </c>
-      <c r="F170" t="s">
-        <v>328</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6356,10 +6344,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>328</v>
+      </c>
+      <c r="F171" t="s">
         <v>329</v>
-      </c>
-      <c r="F171" t="s">
-        <v>330</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6385,10 +6373,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>330</v>
+      </c>
+      <c r="F172" t="s">
         <v>331</v>
-      </c>
-      <c r="F172" t="s">
-        <v>332</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6414,10 +6402,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>332</v>
+      </c>
+      <c r="F173" t="s">
         <v>333</v>
-      </c>
-      <c r="F173" t="s">
-        <v>334</v>
       </c>
       <c r="G173" t="n">
         <v>3</v>
@@ -6443,10 +6431,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>334</v>
+      </c>
+      <c r="F174" t="s">
         <v>335</v>
-      </c>
-      <c r="F174" t="s">
-        <v>336</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6472,10 +6460,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>336</v>
+      </c>
+      <c r="F175" t="s">
         <v>337</v>
-      </c>
-      <c r="F175" t="s">
-        <v>338</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6501,10 +6489,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>338</v>
+      </c>
+      <c r="F176" t="s">
         <v>339</v>
-      </c>
-      <c r="F176" t="s">
-        <v>340</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6530,10 +6518,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>340</v>
+      </c>
+      <c r="F177" t="s">
         <v>341</v>
-      </c>
-      <c r="F177" t="s">
-        <v>342</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6559,11 +6547,11 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>342</v>
+      </c>
+      <c r="F178" t="s">
         <v>343</v>
       </c>
-      <c r="F178" t="s">
-        <v>344</v>
-      </c>
       <c r="G178" t="n">
         <v>1</v>
       </c>
@@ -6571,64 +6559,6 @@
         <v>4</v>
       </c>
       <c r="I178" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="s">
-        <v>0</v>
-      </c>
-      <c r="C179" t="s">
-        <v>1</v>
-      </c>
-      <c r="D179" t="n">
-        <v>178</v>
-      </c>
-      <c r="E179" t="s">
-        <v>345</v>
-      </c>
-      <c r="F179" t="s">
-        <v>346</v>
-      </c>
-      <c r="G179" t="n">
-        <v>9</v>
-      </c>
-      <c r="H179" t="s">
-        <v>4</v>
-      </c>
-      <c r="I179" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="s">
-        <v>0</v>
-      </c>
-      <c r="C180" t="s">
-        <v>1</v>
-      </c>
-      <c r="D180" t="n">
-        <v>179</v>
-      </c>
-      <c r="E180" t="s">
-        <v>345</v>
-      </c>
-      <c r="F180" t="s">
-        <v>347</v>
-      </c>
-      <c r="G180" t="n">
-        <v>1</v>
-      </c>
-      <c r="H180" t="s">
-        <v>4</v>
-      </c>
-      <c r="I180" t="n">
         <v>3</v>
       </c>
     </row>
